--- a/biology/Zoologie/Anolis_schiedii/Anolis_schiedii.xlsx
+++ b/biology/Zoologie/Anolis_schiedii/Anolis_schiedii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis schiedii est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis schiedii est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Veracruz au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Veracruz au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Christian Julius Wilhelm Schiede[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Christian Julius Wilhelm Schiede.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wiegmann, 1834 : Herpetologia mexicana, seu Descriptio amphibiorum Novae Hispaniae quae itineribus comitis De Sack, Ferdinandi Deppe et Chr. Guil. Schiede in Museum zoologicum Berolinense pervenerunt. Pars prima saurorum species amplectens, adjecto systematis saurorum prodromo, additisque multis in hunc amphibiorum ordinem observationibus. Lüderitz, Berlin, p. 1-54 (texte intégral).</t>
         </is>
